--- a/Statistiche/tablet/dati consumi.xlsx
+++ b/Statistiche/tablet/dati consumi.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TELEFONO" sheetId="1" r:id="rId1"/>
-    <sheet name="TABLET" sheetId="2" r:id="rId2"/>
+    <sheet name="Telefono" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>time</t>
   </si>
@@ -42,12 +42,27 @@
   <si>
     <t>consumo/min</t>
   </si>
+  <si>
+    <t>1 pull 10 sec</t>
+  </si>
+  <si>
+    <t>1 pull 20 sec</t>
+  </si>
+  <si>
+    <t>durata (min)</t>
+  </si>
+  <si>
+    <t>time (sec)</t>
+  </si>
+  <si>
+    <t>parziali</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +104,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -139,22 +169,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -335,7 +388,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>TELEFONO!$C$7:$C$19</c:f>
+              <c:f>Telefono!$C$7:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -383,7 +436,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TELEFONO!$D$7:$D$19</c:f>
+              <c:f>Telefono!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -781,7 +834,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>TELEFONO!$C$28:$C$42</c:f>
+              <c:f>Telefono!$C$28:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -835,7 +888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TELEFONO!$D$28:$D$42</c:f>
+              <c:f>Telefono!$D$28:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1201,7 +1254,7 @@
                   <c:y val="2.7076407115777194E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1233,7 +1286,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>TABLET!$D$2:$D$12</c:f>
+              <c:f>Tablet!$D$18:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1275,7 +1328,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TABLET!$E$2:$E$12</c:f>
+              <c:f>Tablet!$E$18:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1624,7 +1677,7 @@
                   <c:y val="1.1589020122484689E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1656,7 +1709,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>TABLET!$C$17:$C$27</c:f>
+              <c:f>Tablet!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1698,7 +1751,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TABLET!$D$17:$D$27</c:f>
+              <c:f>Tablet!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1877,6 +1930,856 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="297694536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> pull 10 sec</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13502340332458443"/>
+                  <c:y val="-6.1971420239136775E-6"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tablet!$D$34:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4683</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tablet!$E$34:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECCA-4DF8-897A-6BBB0D41B849}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="299116560"/>
+        <c:axId val="299110656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="299116560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299110656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="299110656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299116560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>1 pull 20 sec</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13301685742890387"/>
+                  <c:y val="-4.6092155147273257E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tablet!$C$50:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5228</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tablet!$D$50:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E81-4ED2-B724-B5C914F8ABAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="306801360"/>
+        <c:axId val="306799720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="306801360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306799720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="306799720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306801360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2085,6 +2988,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3634,6 +4617,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4230,16 +6245,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4266,15 +6281,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4295,6 +6310,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BB4DDE-3D07-482B-886B-F280EF59D9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590FE9A2-38E3-4589-AA45-7E9E4B9E4A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5037,483 +7124,979 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:C13" si="0">A4*60+B4</f>
+        <v>672</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D13" si="1">D3-1</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12">
+        <v>57</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>837</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>1218</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>30</v>
+      </c>
+      <c r="B7" s="12">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>1822</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>34</v>
+      </c>
+      <c r="B8" s="12">
+        <v>56</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>2096</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>41</v>
+      </c>
+      <c r="B9" s="12">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>2472</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>50</v>
+      </c>
+      <c r="B10" s="12">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>3022</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>55</v>
+      </c>
+      <c r="B11" s="15">
+        <v>40</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>3340</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>60</v>
+      </c>
+      <c r="B12" s="12">
+        <v>38</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>3638</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>71</v>
+      </c>
+      <c r="B13" s="16">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" si="0"/>
+        <v>4272</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3">
+        <f>0.002432*60</f>
+        <v>0.14591999999999999</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>-2.4320000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5">
+        <f>C13/60</f>
+        <v>71.2</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="2" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12">
+        <v>54</v>
+      </c>
+      <c r="C18" s="12">
+        <f>A18*60+B18</f>
+        <v>594</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D28" si="2">C18-$C$18</f>
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>54</v>
-      </c>
-      <c r="C2">
-        <f>A2*60+B2</f>
-        <v>594</v>
-      </c>
-      <c r="D2" s="3">
-        <f>C2-$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="E18" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B19" s="12">
         <v>43</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">A3*60+B3</f>
+      <c r="C19" s="12">
+        <f t="shared" ref="C19:C28" si="3">A19*60+B19</f>
         <v>1183</v>
       </c>
-      <c r="D3" s="3">
-        <f>C3-$C$2</f>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
         <v>589</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E12" si="1">E2-1</f>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19:E28" si="4">E18-1</f>
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>28</v>
       </c>
-      <c r="B4">
+      <c r="B20" s="12">
         <v>45</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="C20" s="12">
+        <f t="shared" si="3"/>
         <v>1725</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D12" si="2">C4-$C$2</f>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
         <v>1131</v>
       </c>
-      <c r="E4" s="3">
-        <f t="shared" si="1"/>
+      <c r="E20" s="3">
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>36</v>
       </c>
-      <c r="B5">
+      <c r="B21" s="12">
         <v>24</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+      <c r="C21" s="12">
+        <f t="shared" si="3"/>
         <v>2184</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D21" s="3">
         <f t="shared" si="2"/>
         <v>1590</v>
       </c>
-      <c r="E5" s="3">
-        <f t="shared" si="1"/>
+      <c r="E21" s="3">
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>44</v>
       </c>
-      <c r="B6">
+      <c r="B22" s="12">
         <v>6</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
+      <c r="C22" s="12">
+        <f t="shared" si="3"/>
         <v>2646</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D22" s="3">
         <f t="shared" si="2"/>
         <v>2052</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="1"/>
+      <c r="E22" s="3">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>53</v>
       </c>
-      <c r="B7">
+      <c r="B23" s="12">
         <v>1</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
+      <c r="C23" s="12">
+        <f t="shared" si="3"/>
         <v>3181</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D23" s="3">
         <f t="shared" si="2"/>
         <v>2587</v>
       </c>
-      <c r="E7" s="3">
-        <f t="shared" si="1"/>
+      <c r="E23" s="3">
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>62</v>
       </c>
-      <c r="B8">
+      <c r="B24" s="12">
         <v>21</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
+      <c r="C24" s="12">
+        <f t="shared" si="3"/>
         <v>3741</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D24" s="3">
         <f t="shared" si="2"/>
         <v>3147</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="1"/>
+      <c r="E24" s="3">
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>68</v>
       </c>
-      <c r="B9">
+      <c r="B25" s="12">
         <v>50</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
+      <c r="C25" s="12">
+        <f t="shared" si="3"/>
         <v>4130</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D25" s="3">
         <f t="shared" si="2"/>
         <v>3536</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="1"/>
+      <c r="E25" s="3">
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>77</v>
       </c>
-      <c r="B10">
+      <c r="B26" s="12">
         <v>7</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
+      <c r="C26" s="12">
+        <f t="shared" si="3"/>
         <v>4627</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D26" s="3">
         <f t="shared" si="2"/>
         <v>4033</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
+      <c r="E26" s="3">
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>84</v>
       </c>
-      <c r="B11">
+      <c r="B27" s="12">
         <v>52</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
+      <c r="C27" s="12">
+        <f t="shared" si="3"/>
         <v>5092</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D27" s="3">
         <f t="shared" si="2"/>
         <v>4498</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
+      <c r="E27" s="3">
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>93</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B28" s="16">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
+      <c r="C28" s="16">
+        <f t="shared" si="3"/>
         <v>5581</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D28" s="8">
         <f t="shared" si="2"/>
         <v>4987</v>
       </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
+      <c r="E28" s="4">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="3">
-        <f>0.002*60</f>
-        <v>0.12</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="3">
+        <f>0.002025*60</f>
+        <v>0.1215</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="2" t="s">
+      <c r="E29">
+        <v>-2.0249999999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14">
+        <f>D28/60</f>
+        <v>83.11666666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>3</v>
+      </c>
+      <c r="B34" s="12">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" ref="C34:C44" si="5">A34*60+B34</f>
+        <v>210</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:D44" si="6">C34-$C$34</f>
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E34" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>20</v>
+      </c>
+      <c r="B35" s="12">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" si="5"/>
+        <v>1209</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+      <c r="E35" s="12">
+        <f>E34-1</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>26</v>
+      </c>
+      <c r="B36" s="12">
+        <v>30</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" si="5"/>
+        <v>1590</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="6"/>
+        <v>1380</v>
+      </c>
+      <c r="E36" s="12">
+        <f>E35-1</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>32</v>
+      </c>
+      <c r="B37" s="12">
+        <v>50</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="5"/>
+        <v>1970</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="6"/>
+        <v>1760</v>
+      </c>
+      <c r="E37" s="12">
+        <f>E36-1</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>41</v>
+      </c>
+      <c r="B38" s="12">
+        <v>33</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="5"/>
+        <v>2493</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="6"/>
+        <v>2283</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" ref="E38:E44" si="7">E37-1</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>49</v>
+      </c>
+      <c r="B39" s="12">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="5"/>
+        <v>2949</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="6"/>
+        <v>2739</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>58</v>
+      </c>
+      <c r="B40" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C40" s="15">
+        <f t="shared" si="5"/>
+        <v>3481</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="6"/>
+        <v>3271</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>71</v>
+      </c>
+      <c r="B41" s="12">
+        <v>34</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="5"/>
+        <v>4294</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="6"/>
+        <v>4084</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>78</v>
+      </c>
+      <c r="B42" s="12">
+        <v>10</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="5"/>
+        <v>4690</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="6"/>
+        <v>4480</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>81</v>
+      </c>
+      <c r="B43" s="12">
+        <v>33</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="5"/>
+        <v>4893</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="6"/>
+        <v>4683</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>89</v>
+      </c>
+      <c r="B44" s="16">
+        <v>36</v>
+      </c>
+      <c r="C44" s="16">
+        <f t="shared" si="5"/>
+        <v>5376</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" si="6"/>
+        <v>5166</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="3">
+        <f>0.001962*60</f>
+        <v>0.11772000000000002</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>-1.9620000000000002E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14">
+        <f>D44/60</f>
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B50" s="12">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C50" s="12">
+        <f t="shared" ref="C50:C60" si="8">A50*60+B50</f>
         <v>0</v>
       </c>
-      <c r="D17" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18">
+      <c r="D50" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>29</v>
+      </c>
+      <c r="B51" s="12">
+        <v>43</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="8"/>
+        <v>1783</v>
+      </c>
+      <c r="D51" s="12">
+        <f>D50-1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>33</v>
+      </c>
+      <c r="B52" s="12">
+        <v>23</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="8"/>
+        <v>2003</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" ref="D52:D60" si="9">D51-1</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>40</v>
+      </c>
+      <c r="B53" s="12">
+        <v>49</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="8"/>
+        <v>2449</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>48</v>
+      </c>
+      <c r="B54" s="12">
+        <v>31</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="8"/>
+        <v>2911</v>
+      </c>
+      <c r="D54" s="12">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>56</v>
+      </c>
+      <c r="B55" s="12">
+        <v>55</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" si="8"/>
+        <v>3415</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>63</v>
+      </c>
+      <c r="B56" s="12">
+        <v>36</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="8"/>
+        <v>3816</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>71</v>
+      </c>
+      <c r="B57" s="12">
         <v>12</v>
       </c>
-      <c r="C18">
-        <f t="shared" ref="C18:C27" si="3">A18*60+B18</f>
-        <v>672</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D27" si="4">D17-1</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>57</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="3"/>
-        <v>837</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="4"/>
+      <c r="C57" s="12">
+        <f t="shared" si="8"/>
+        <v>4272</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>1218</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>1822</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="4"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>34</v>
-      </c>
-      <c r="B22">
+      <c r="B58" s="12">
+        <v>32</v>
+      </c>
+      <c r="C58" s="12">
+        <f t="shared" si="8"/>
+        <v>4712</v>
+      </c>
+      <c r="D58" s="12">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>87</v>
+      </c>
+      <c r="B59" s="12">
+        <v>8</v>
+      </c>
+      <c r="C59" s="12">
+        <f t="shared" si="8"/>
+        <v>5228</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>94</v>
+      </c>
+      <c r="B60" s="16">
         <v>56</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>2096</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>41</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="3"/>
-        <v>2472</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="4"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="3"/>
-        <v>3022</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>40</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="3"/>
-        <v>3340</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>60</v>
-      </c>
-      <c r="B26">
-        <v>38</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="3"/>
-        <v>3638</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>71</v>
-      </c>
-      <c r="B27" s="4">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="3"/>
-        <v>4272</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="C60" s="17">
+        <f t="shared" si="8"/>
+        <v>5696</v>
+      </c>
+      <c r="D60" s="16">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="3">
-        <f>0.0024*60</f>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="3">
+        <f>0.001933*60</f>
+        <v>0.11598</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E28">
-        <v>-2.3999999999999998E-3</v>
+      <c r="E61">
+        <v>-1.933E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62">
+        <f>C60/60</f>
+        <v>94.933333333333337</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="12">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Statistiche/tablet/dati consumi.xlsx
+++ b/Statistiche/tablet/dati consumi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>time</t>
   </si>
@@ -57,12 +57,51 @@
   <si>
     <t>parziali</t>
   </si>
+  <si>
+    <t>Frequenza</t>
+  </si>
+  <si>
+    <t>Derivata</t>
+  </si>
+  <si>
+    <t>Display 25%</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Media X</t>
+  </si>
+  <si>
+    <t>Media Y</t>
+  </si>
+  <si>
+    <t>Varianza x</t>
+  </si>
+  <si>
+    <t>Varianza y</t>
+  </si>
+  <si>
+    <t>Deviazione x</t>
+  </si>
+  <si>
+    <t>Deviazione y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covarianza </t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +158,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -182,18 +229,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,6 +245,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2828,6 +2876,371 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablet!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Derivata</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26391994750656167"/>
+                  <c:y val="9.81758530183727E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tablet!$D$73:$D$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tablet!$E$73:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-2.4320000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0249999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9620000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.933E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F537-4DD4-ACD0-320D8B0611BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="244658520"/>
+        <c:axId val="244660488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="244658520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244660488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="244660488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244658520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3068,6 +3481,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5649,6 +6102,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6387,6 +7356,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9754E5-50FF-4E0A-8AFE-711DC3563B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7124,23 +8129,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E62"/>
+  <dimension ref="A2:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
@@ -7149,13 +8155,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>0</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="3">
@@ -7163,13 +8169,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>11</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>12</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <f t="shared" ref="C4:C13" si="0">A4*60+B4</f>
         <v>672</v>
       </c>
@@ -7179,13 +8185,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>13</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>57</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>837</v>
       </c>
@@ -7195,13 +8201,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>20</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>1218</v>
       </c>
@@ -7211,13 +8217,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>30</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>22</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>1822</v>
       </c>
@@ -7227,13 +8233,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>34</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>56</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <f t="shared" si="0"/>
         <v>2096</v>
       </c>
@@ -7243,13 +8249,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>41</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>12</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <f t="shared" si="0"/>
         <v>2472</v>
       </c>
@@ -7259,13 +8265,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>50</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>22</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <f t="shared" si="0"/>
         <v>3022</v>
       </c>
@@ -7275,13 +8281,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>55</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>40</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>3340</v>
       </c>
@@ -7291,13 +8297,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>60</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>38</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <f t="shared" si="0"/>
         <v>3638</v>
       </c>
@@ -7307,13 +8313,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="12">
         <v>71</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>12</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <f t="shared" si="0"/>
         <v>4272</v>
       </c>
@@ -7323,10 +8329,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3">
         <f>0.002432*60</f>
         <v>0.14591999999999999</v>
@@ -7339,10 +8345,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5">
         <f>C13/60</f>
         <v>71.2</v>
@@ -7350,11 +8356,11 @@
       <c r="D15" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -7365,13 +8371,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>9</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>54</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <f>A18*60+B18</f>
         <v>594</v>
       </c>
@@ -7384,13 +8390,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>19</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>43</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <f t="shared" ref="C19:C28" si="3">A19*60+B19</f>
         <v>1183</v>
       </c>
@@ -7404,13 +8410,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>28</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>45</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <f t="shared" si="3"/>
         <v>1725</v>
       </c>
@@ -7424,13 +8430,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>36</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>24</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <f t="shared" si="3"/>
         <v>2184</v>
       </c>
@@ -7444,13 +8450,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>44</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>6</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <f t="shared" si="3"/>
         <v>2646</v>
       </c>
@@ -7464,13 +8470,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>53</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <f t="shared" si="3"/>
         <v>3181</v>
       </c>
@@ -7484,13 +8490,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>62</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>21</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <f t="shared" si="3"/>
         <v>3741</v>
       </c>
@@ -7504,13 +8510,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>68</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>50</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="9">
         <f t="shared" si="3"/>
         <v>4130</v>
       </c>
@@ -7524,13 +8530,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>77</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>7</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="9">
         <f t="shared" si="3"/>
         <v>4627</v>
       </c>
@@ -7544,13 +8550,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>84</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>52</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="9">
         <f t="shared" si="3"/>
         <v>5092</v>
       </c>
@@ -7564,13 +8570,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="12">
         <v>93</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="12">
         <f t="shared" si="3"/>
         <v>5581</v>
       </c>
@@ -7584,10 +8590,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3">
         <f>0.002025*60</f>
         <v>0.1215</v>
@@ -7600,21 +8606,21 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14">
+      <c r="B30" s="15"/>
+      <c r="C30" s="10">
         <f>D28/60</f>
         <v>83.11666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -7625,13 +8631,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="9">
         <v>3</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <v>30</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f t="shared" ref="C34:C44" si="5">A34*60+B34</f>
         <v>210</v>
       </c>
@@ -7639,18 +8645,18 @@
         <f t="shared" ref="D34:D44" si="6">C34-$C$34</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <v>9</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="9">
         <f t="shared" si="5"/>
         <v>1209</v>
       </c>
@@ -7658,19 +8664,19 @@
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <f>E34-1</f>
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="9">
         <v>26</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="9">
         <v>30</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="9">
         <f t="shared" si="5"/>
         <v>1590</v>
       </c>
@@ -7678,19 +8684,19 @@
         <f t="shared" si="6"/>
         <v>1380</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="9">
         <f>E35-1</f>
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="9">
         <v>32</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="9">
         <v>50</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="9">
         <f t="shared" si="5"/>
         <v>1970</v>
       </c>
@@ -7698,19 +8704,19 @@
         <f t="shared" si="6"/>
         <v>1760</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="9">
         <f>E36-1</f>
         <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="9">
         <v>41</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="9">
         <v>33</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="9">
         <f t="shared" si="5"/>
         <v>2493</v>
       </c>
@@ -7718,19 +8724,19 @@
         <f t="shared" si="6"/>
         <v>2283</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="9">
         <f t="shared" ref="E38:E44" si="7">E37-1</f>
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="9">
         <v>49</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>9</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="9">
         <f t="shared" si="5"/>
         <v>2949</v>
       </c>
@@ -7738,19 +8744,19 @@
         <f t="shared" si="6"/>
         <v>2739</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="9">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="11">
         <v>58</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="11">
         <v>1</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="11">
         <f t="shared" si="5"/>
         <v>3481</v>
       </c>
@@ -7758,19 +8764,19 @@
         <f t="shared" si="6"/>
         <v>3271</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="11">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="9">
         <v>71</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="9">
         <v>34</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="9">
         <f t="shared" si="5"/>
         <v>4294</v>
       </c>
@@ -7778,19 +8784,19 @@
         <f t="shared" si="6"/>
         <v>4084</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="9">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="9">
         <v>78</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="9">
         <v>10</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="9">
         <f t="shared" si="5"/>
         <v>4690</v>
       </c>
@@ -7798,19 +8804,19 @@
         <f t="shared" si="6"/>
         <v>4480</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="9">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="9">
         <v>81</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="9">
         <v>33</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="9">
         <f t="shared" si="5"/>
         <v>4893</v>
       </c>
@@ -7818,19 +8824,19 @@
         <f t="shared" si="6"/>
         <v>4683</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="9">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="12">
         <v>89</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="12">
         <v>36</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="12">
         <f t="shared" si="5"/>
         <v>5376</v>
       </c>
@@ -7838,16 +8844,16 @@
         <f t="shared" si="6"/>
         <v>5166</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="12">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="3">
         <f>0.001962*60</f>
         <v>0.11772000000000002</v>
@@ -7860,20 +8866,20 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14">
+      <c r="B46" s="15"/>
+      <c r="C46" s="10">
         <f>D44/60</f>
         <v>86.1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="2" t="s">
         <v>10</v>
       </c>
@@ -7882,186 +8888,186 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="9">
         <v>0</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="9">
         <f t="shared" ref="C50:C60" si="8">A50*60+B50</f>
         <v>0</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="9">
         <v>29</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="9">
         <v>43</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="9">
         <f t="shared" si="8"/>
         <v>1783</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="9">
         <f>D50-1</f>
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="9">
         <v>33</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="9">
         <v>23</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="9">
         <f t="shared" si="8"/>
         <v>2003</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="9">
         <f t="shared" ref="D52:D60" si="9">D51-1</f>
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="A53" s="9">
         <v>40</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="9">
         <v>49</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="9">
         <f t="shared" si="8"/>
         <v>2449</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="9">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="A54" s="9">
         <v>48</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="9">
         <v>31</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="9">
         <f t="shared" si="8"/>
         <v>2911</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="9">
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="9">
         <v>56</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="9">
         <v>55</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="9">
         <f t="shared" si="8"/>
         <v>3415</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="9">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="A56" s="9">
         <v>63</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="9">
         <v>36</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="9">
         <f t="shared" si="8"/>
         <v>3816</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="9">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
+      <c r="A57" s="9">
         <v>71</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="9">
         <v>12</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="9">
         <f t="shared" si="8"/>
         <v>4272</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="9">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
+      <c r="A58" s="9">
         <v>78</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="9">
         <v>32</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="9">
         <f t="shared" si="8"/>
         <v>4712</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="9">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+      <c r="A59" s="9">
         <v>87</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="9">
         <v>8</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="9">
         <f t="shared" si="8"/>
         <v>5228</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="9">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="A60" s="12">
         <v>94</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="12">
         <v>56</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="13">
         <f t="shared" si="8"/>
         <v>5696</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="12">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="11"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="3">
         <f>0.001933*60</f>
         <v>0.11598</v>
@@ -8074,29 +9080,152 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="15"/>
       <c r="C62">
         <f>C60/60</f>
         <v>94.933333333333337</v>
       </c>
     </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>-2.4320000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0.2</v>
+      </c>
+      <c r="E74">
+        <v>-2.0249999999999999E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>0.1</v>
+      </c>
+      <c r="E75">
+        <v>-1.9620000000000002E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0.05</v>
+      </c>
+      <c r="E76">
+        <v>-1.933E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <f>AVERAGE(D73:D76)</f>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <f>AVERAGE(E73:E76)</f>
+        <v>-2.088E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <f>_xlfn.VAR.S(D73:D76)</f>
+        <v>0.19895833333333332</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <f>_xlfn.VAR.S(E73:E76)</f>
+        <v>5.406866666666669E-8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <f>SQRT(C83)</f>
+        <v>0.44604745636908782</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86">
+        <f>SQRT(C84)</f>
+        <v>2.325267009757518E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <f>_xlfn.COVARIANCE.S(D73:D76,E73:E76)</f>
+        <v>-1.0368333333333335E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B89" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="19">
+        <f>C88/(C85*C86)</f>
+        <v>-0.99966630484923258</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Statistiche/tablet/dati consumi.xlsx
+++ b/Statistiche/tablet/dati consumi.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Telefono" sheetId="1" r:id="rId1"/>
     <sheet name="Tablet" sheetId="2" r:id="rId2"/>
+    <sheet name="Tab2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>time</t>
   </si>
@@ -95,6 +99,9 @@
   </si>
   <si>
     <t>Pearson</t>
+  </si>
+  <si>
+    <t>1 pull 9 min</t>
   </si>
 </sst>
 </file>
@@ -205,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -248,16 +255,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3241,6 +3251,429 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Senza pull</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13297178477690283"/>
+                  <c:y val="2.1503718285214433E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tab2'!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tab2'!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAFF-41AA-B96F-17F6EDF8E8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="395416152"/>
+        <c:axId val="395418776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="395416152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395418776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="395418776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395416152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3521,6 +3954,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6618,6 +7091,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7395,6 +8384,151 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92E5C9C-B7BB-4588-8B87-F6FB88996906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Telefono"/>
+      <sheetName val="Tablet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="68">
+          <cell r="C68">
+            <v>0</v>
+          </cell>
+          <cell r="D68">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>1794</v>
+          </cell>
+          <cell r="D69">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>2479</v>
+          </cell>
+          <cell r="D70">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>2844</v>
+          </cell>
+          <cell r="D71">
+            <v>97</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>3313</v>
+          </cell>
+          <cell r="D72">
+            <v>96</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>3872</v>
+          </cell>
+          <cell r="D73">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>4644</v>
+          </cell>
+          <cell r="D74">
+            <v>94</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>4836</v>
+          </cell>
+          <cell r="D75">
+            <v>93</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>5325</v>
+          </cell>
+          <cell r="D76">
+            <v>92</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>5795</v>
+          </cell>
+          <cell r="D77">
+            <v>91</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>6444</v>
+          </cell>
+          <cell r="D78">
+            <v>90</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8131,7 +9265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -8143,10 +9277,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
@@ -8345,10 +9479,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="5">
         <f>C13/60</f>
         <v>71.2</v>
@@ -8356,10 +9490,10 @@
       <c r="D15" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
@@ -8606,20 +9740,20 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="10">
         <f>D28/60</f>
         <v>83.11666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="14" t="s">
         <v>11</v>
       </c>
@@ -8866,20 +10000,20 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="10">
         <f>D44/60</f>
         <v>86.1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="16"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="2" t="s">
         <v>10</v>
       </c>
@@ -9064,10 +10198,10 @@
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="3">
         <f>0.001933*60</f>
         <v>0.11598</v>
@@ -9080,10 +10214,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="15"/>
+      <c r="B62" s="17"/>
       <c r="C62">
         <f>C60/60</f>
         <v>94.933333333333337</v>
@@ -9204,31 +10338,266 @@
       </c>
     </row>
     <row r="89" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C89" s="16">
         <f>C88/(C85*C86)</f>
         <v>-0.99966630484923258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:C15" si="0">A5*60+B5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>29</v>
+      </c>
+      <c r="B6" s="15">
+        <v>54</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" si="0"/>
+        <v>1794</v>
+      </c>
+      <c r="D6" s="15">
+        <f>D5-1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>41</v>
+      </c>
+      <c r="B7" s="15">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>2479</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" ref="D7:D15" si="1">D6-1</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>47</v>
+      </c>
+      <c r="B8" s="15">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>2844</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>55</v>
+      </c>
+      <c r="B9" s="15">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>3313</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>64</v>
+      </c>
+      <c r="B10" s="15">
+        <v>32</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>3872</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>77</v>
+      </c>
+      <c r="B11" s="15">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>4644</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>80</v>
+      </c>
+      <c r="B12" s="15">
+        <v>36</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="0"/>
+        <v>4836</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>88</v>
+      </c>
+      <c r="B13" s="15">
+        <v>45</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="0"/>
+        <v>5325</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>96</v>
+      </c>
+      <c r="B14" s="15">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" si="0"/>
+        <v>5795</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>107</v>
+      </c>
+      <c r="B15" s="12">
+        <v>24</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>6444</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="3">
+        <f>0.001704*60</f>
+        <v>0.10224</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>-1.704E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17">
+        <f>C15/60</f>
+        <v>107.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Statistiche/tablet/dati consumi.xlsx
+++ b/Statistiche/tablet/dati consumi.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Telefono" sheetId="1" r:id="rId1"/>
     <sheet name="Tablet" sheetId="2" r:id="rId2"/>
     <sheet name="Tab2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -107,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +170,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -268,6 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -286,7 +292,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -325,7 +331,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
@@ -346,26 +362,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -541,7 +537,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2072-4EFA-A086-D503856CA988}"/>
             </c:ext>
@@ -555,11 +551,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304393368"/>
-        <c:axId val="304392712"/>
+        <c:axId val="177406720"/>
+        <c:axId val="177408256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="304393368"/>
+        <c:axId val="177406720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,12 +612,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304392712"/>
+        <c:crossAx val="177408256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304392712"/>
+        <c:axId val="177408256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +674,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304393368"/>
+        <c:crossAx val="177406720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -728,7 +724,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -772,7 +768,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
@@ -792,26 +798,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -999,7 +985,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-199F-4434-B17A-207DB1DC30D7}"/>
             </c:ext>
@@ -1013,11 +999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308336656"/>
-        <c:axId val="308335672"/>
+        <c:axId val="177437696"/>
+        <c:axId val="177464064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="308336656"/>
+        <c:axId val="177437696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,12 +1060,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308335672"/>
+        <c:crossAx val="177464064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308335672"/>
+        <c:axId val="177464064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1122,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308336656"/>
+        <c:crossAx val="177437696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1186,7 +1172,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -1224,12 +1210,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> pull 5 sec</a:t>
+              <a:t> pull ogni 5 sec</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1238,26 +1225,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1391,43 +1358,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A5D-4E89-8DEC-DB295FEDB351}"/>
             </c:ext>
@@ -1441,11 +1408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297702736"/>
-        <c:axId val="297704048"/>
+        <c:axId val="177678208"/>
+        <c:axId val="177679744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297702736"/>
+        <c:axId val="177678208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,6 +1432,30 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> [sec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1502,12 +1493,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297704048"/>
+        <c:crossAx val="177679744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297704048"/>
+        <c:axId val="177679744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,6 +1518,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>livello batteria</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1564,7 +1574,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297702736"/>
+        <c:crossAx val="177678208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1614,7 +1624,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -1648,11 +1658,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>1 pull 1 sec</a:t>
+              <a:t>1 pull al sec</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1661,26 +1672,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1814,43 +1805,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-66F7-4742-B1C0-29DCF41F7830}"/>
             </c:ext>
@@ -1864,11 +1855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297694536"/>
-        <c:axId val="297699128"/>
+        <c:axId val="177725824"/>
+        <c:axId val="177727360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297694536"/>
+        <c:axId val="177725824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,6 +1879,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>tempo [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1925,12 +1935,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297699128"/>
+        <c:crossAx val="177727360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297699128"/>
+        <c:axId val="177727360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,6 +1960,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>livello batteria</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1987,7 +2016,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297694536"/>
+        <c:crossAx val="177725824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2037,7 +2066,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -2075,11 +2104,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> pull 10 sec</a:t>
+              <a:t> pull ogni 10 sec</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2088,26 +2118,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2241,43 +2251,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ECCA-4DF8-897A-6BBB0D41B849}"/>
             </c:ext>
@@ -2291,11 +2301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299116560"/>
-        <c:axId val="299110656"/>
+        <c:axId val="177824128"/>
+        <c:axId val="177825664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299116560"/>
+        <c:axId val="177824128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,6 +2325,30 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> [sec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2352,12 +2386,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299110656"/>
+        <c:crossAx val="177825664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299110656"/>
+        <c:axId val="177825664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,6 +2411,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>livello batteria</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2414,7 +2467,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299116560"/>
+        <c:crossAx val="177824128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2464,7 +2517,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -2498,11 +2551,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>1 pull 20 sec</a:t>
+              <a:t>1 pull ogni 20 sec</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2511,26 +2565,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2700,7 +2734,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E81-4ED2-B724-B5C914F8ABAD}"/>
             </c:ext>
@@ -2714,11 +2748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="306801360"/>
-        <c:axId val="306799720"/>
+        <c:axId val="177863680"/>
+        <c:axId val="177865472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="306801360"/>
+        <c:axId val="177863680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,6 +2772,30 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> [sec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2775,12 +2833,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306799720"/>
+        <c:crossAx val="177865472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="306799720"/>
+        <c:axId val="177865472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,6 +2858,30 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>livello</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> batteria</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2837,7 +2919,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306801360"/>
+        <c:crossAx val="177863680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2887,7 +2969,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -2901,6 +2983,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Velocità media di scarica</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2909,26 +3017,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3065,7 +3153,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F537-4DD4-ACD0-320D8B0611BE}"/>
             </c:ext>
@@ -3079,11 +3167,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244658520"/>
-        <c:axId val="244660488"/>
+        <c:axId val="177909760"/>
+        <c:axId val="177911296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244658520"/>
+        <c:axId val="177909760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,6 +3191,30 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>frequenza</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> di pull [pull/sec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3140,12 +3252,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244660488"/>
+        <c:crossAx val="177911296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244660488"/>
+        <c:axId val="177911296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3165,6 +3277,30 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>velocità</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> media scarica</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3202,7 +3338,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244658520"/>
+        <c:crossAx val="177909760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3252,7 +3388,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -3291,6 +3427,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3299,26 +3436,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3488,7 +3605,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AAFF-41AA-B96F-17F6EDF8E8FE}"/>
             </c:ext>
@@ -3502,11 +3619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395416152"/>
-        <c:axId val="395418776"/>
+        <c:axId val="177953024"/>
+        <c:axId val="177975296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395416152"/>
+        <c:axId val="177953024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3563,12 +3680,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395418776"/>
+        <c:crossAx val="177975296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395418776"/>
+        <c:axId val="177975296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3625,7 +3742,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395416152"/>
+        <c:crossAx val="177953024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8142,7 +8259,7 @@
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FA714D-01FA-45DF-8D0D-00BF5A75AC93}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FA714D-01FA-45DF-8D0D-00BF5A75AC93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8178,7 +8295,7 @@
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1291D28D-6725-4D1E-B13F-4FC55E3CC6EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1291D28D-6725-4D1E-B13F-4FC55E3CC6EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8219,7 +8336,7 @@
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C32D2E-9A65-4567-8287-03C1584B9F91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C32D2E-9A65-4567-8287-03C1584B9F91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8255,7 +8372,7 @@
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF724F6-D994-4252-8CA4-084BEF714D15}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF724F6-D994-4252-8CA4-084BEF714D15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8291,7 +8408,7 @@
         <xdr:cNvPr id="4" name="Grafico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BB4DDE-3D07-482B-886B-F280EF59D9E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BB4DDE-3D07-482B-886B-F280EF59D9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8327,7 +8444,7 @@
         <xdr:cNvPr id="5" name="Grafico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590FE9A2-38E3-4589-AA45-7E9E4B9E4A6D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590FE9A2-38E3-4589-AA45-7E9E4B9E4A6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8363,7 +8480,7 @@
         <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9754E5-50FF-4E0A-8AFE-711DC3563B27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9754E5-50FF-4E0A-8AFE-711DC3563B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8404,7 +8521,7 @@
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92E5C9C-B7BB-4588-8B87-F6FB88996906}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92E5C9C-B7BB-4588-8B87-F6FB88996906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8423,110 +8540,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Telefono"/>
-      <sheetName val="Tablet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="68">
-          <cell r="C68">
-            <v>0</v>
-          </cell>
-          <cell r="D68">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>1794</v>
-          </cell>
-          <cell r="D69">
-            <v>99</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>2479</v>
-          </cell>
-          <cell r="D70">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>2844</v>
-          </cell>
-          <cell r="D71">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>3313</v>
-          </cell>
-          <cell r="D72">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>3872</v>
-          </cell>
-          <cell r="D73">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>4644</v>
-          </cell>
-          <cell r="D74">
-            <v>94</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>4836</v>
-          </cell>
-          <cell r="D75">
-            <v>93</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>5325</v>
-          </cell>
-          <cell r="D76">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>5795</v>
-          </cell>
-          <cell r="D77">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>6444</v>
-          </cell>
-          <cell r="D78">
-            <v>90</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8572,7 +8585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -8607,7 +8620,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -8784,7 +8797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9263,10 +9276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E89"/>
+  <dimension ref="A2:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9299,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9315,7 +9328,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D13" si="1">D3-1</f>
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9331,7 +9344,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9347,7 +9360,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9363,7 +9376,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9379,7 +9392,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9395,7 +9408,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9411,7 +9424,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9427,7 +9440,7 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9443,7 +9456,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9459,7 +9472,7 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9489,7 +9502,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>4</v>
       </c>
@@ -9504,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>9</v>
       </c>
@@ -9520,10 +9533,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>19</v>
       </c>
@@ -9540,10 +9553,10 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" ref="E19:E28" si="4">E18-1</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>28</v>
       </c>
@@ -9560,10 +9573,10 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="4"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>36</v>
       </c>
@@ -9580,10 +9593,10 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44</v>
       </c>
@@ -9600,10 +9613,10 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>53</v>
       </c>
@@ -9620,10 +9633,10 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>62</v>
       </c>
@@ -9640,10 +9653,10 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>68</v>
       </c>
@@ -9660,10 +9673,10 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>77</v>
       </c>
@@ -9680,10 +9693,10 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>84</v>
       </c>
@@ -9700,10 +9713,10 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>93</v>
       </c>
@@ -9720,10 +9733,11 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>6</v>
       </c>
@@ -9739,7 +9753,7 @@
         <v>-2.0249999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>9</v>
       </c>
@@ -9780,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -9800,7 +9814,7 @@
       </c>
       <c r="E35" s="9">
         <f>E34-1</f>
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -9820,7 +9834,7 @@
       </c>
       <c r="E36" s="9">
         <f>E35-1</f>
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -9840,7 +9854,7 @@
       </c>
       <c r="E37" s="9">
         <f>E36-1</f>
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -9860,7 +9874,7 @@
       </c>
       <c r="E38" s="9">
         <f t="shared" ref="E38:E44" si="7">E37-1</f>
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -9880,7 +9894,7 @@
       </c>
       <c r="E39" s="9">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -9900,7 +9914,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -9920,7 +9934,7 @@
       </c>
       <c r="E41" s="9">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -9940,7 +9954,7 @@
       </c>
       <c r="E42" s="9">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -9960,7 +9974,7 @@
       </c>
       <c r="E43" s="9">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -9980,7 +9994,7 @@
       </c>
       <c r="E44" s="12">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -10371,8 +10385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
